--- a/Code/Results/Cases/Case_3_210/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_210/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.002668573273516</v>
+        <v>1.023267232260603</v>
       </c>
       <c r="D2">
-        <v>1.020509370928033</v>
+        <v>1.029146288686311</v>
       </c>
       <c r="E2">
-        <v>1.008821730855501</v>
+        <v>1.02391312102178</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044993858006149</v>
+        <v>1.0325998660753</v>
       </c>
       <c r="J2">
-        <v>1.024769759684302</v>
+        <v>1.028448410760337</v>
       </c>
       <c r="K2">
-        <v>1.031690184880811</v>
+        <v>1.031961047169429</v>
       </c>
       <c r="L2">
-        <v>1.020159517985829</v>
+        <v>1.026743163461279</v>
       </c>
       <c r="N2">
-        <v>1.012315606456076</v>
+        <v>1.013563638581738</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.006140168862854</v>
+        <v>1.023994022218411</v>
       </c>
       <c r="D3">
-        <v>1.023022670640273</v>
+        <v>1.029686919012857</v>
       </c>
       <c r="E3">
-        <v>1.011515543855197</v>
+        <v>1.024523839692532</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045971197555146</v>
+        <v>1.032744194110722</v>
       </c>
       <c r="J3">
-        <v>1.02646483482591</v>
+        <v>1.028814760757309</v>
       </c>
       <c r="K3">
-        <v>1.033369208718337</v>
+        <v>1.032310482425216</v>
       </c>
       <c r="L3">
-        <v>1.022003171296847</v>
+        <v>1.027161396635822</v>
       </c>
       <c r="N3">
-        <v>1.012872869495118</v>
+        <v>1.01368408856369</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.008345840791576</v>
+        <v>1.024464740642486</v>
       </c>
       <c r="D4">
-        <v>1.024620847518886</v>
+        <v>1.030036958671803</v>
       </c>
       <c r="E4">
-        <v>1.013232641230319</v>
+        <v>1.024919797738655</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046581428316315</v>
+        <v>1.032836348136384</v>
       </c>
       <c r="J4">
-        <v>1.027538441926011</v>
+        <v>1.02905155962242</v>
       </c>
       <c r="K4">
-        <v>1.034430931403195</v>
+        <v>1.032536097416402</v>
       </c>
       <c r="L4">
-        <v>1.02317394079511</v>
+        <v>1.027432109903117</v>
       </c>
       <c r="N4">
-        <v>1.013225848161861</v>
+        <v>1.013761941864797</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.009263626764834</v>
+        <v>1.0246627331913</v>
       </c>
       <c r="D5">
-        <v>1.025286140596896</v>
+        <v>1.030184164952103</v>
       </c>
       <c r="E5">
-        <v>1.013948442205534</v>
+        <v>1.025086443715861</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.046832736560984</v>
+        <v>1.032874792885387</v>
       </c>
       <c r="J5">
-        <v>1.027984341515313</v>
+        <v>1.029151047654226</v>
       </c>
       <c r="K5">
-        <v>1.034871472998579</v>
+        <v>1.032630826472655</v>
       </c>
       <c r="L5">
-        <v>1.023660933198411</v>
+        <v>1.0275459374186</v>
       </c>
       <c r="N5">
-        <v>1.013372455984964</v>
+        <v>1.013794650364313</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.009417178638965</v>
+        <v>1.024695982964449</v>
       </c>
       <c r="D6">
-        <v>1.025397464483873</v>
+        <v>1.030208884384227</v>
       </c>
       <c r="E6">
-        <v>1.014068276919755</v>
+        <v>1.025114435109993</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.046874627604426</v>
+        <v>1.032881230496011</v>
       </c>
       <c r="J6">
-        <v>1.028058893960753</v>
+        <v>1.029167748444152</v>
       </c>
       <c r="K6">
-        <v>1.034945104508654</v>
+        <v>1.032646724848662</v>
       </c>
       <c r="L6">
-        <v>1.023742399748845</v>
+        <v>1.027565050667965</v>
       </c>
       <c r="N6">
-        <v>1.013396968490192</v>
+        <v>1.013800141018636</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.008358141197647</v>
+        <v>1.024467385828317</v>
       </c>
       <c r="D7">
-        <v>1.024629762864317</v>
+        <v>1.030038925456962</v>
       </c>
       <c r="E7">
-        <v>1.013242229436957</v>
+        <v>1.024922023745183</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.04658480677214</v>
+        <v>1.032836863004408</v>
       </c>
       <c r="J7">
-        <v>1.027544421304177</v>
+        <v>1.029052889232559</v>
       </c>
       <c r="K7">
-        <v>1.034436840613139</v>
+        <v>1.032537363662031</v>
       </c>
       <c r="L7">
-        <v>1.023180468290501</v>
+        <v>1.027433630796617</v>
       </c>
       <c r="N7">
-        <v>1.01322781410623</v>
+        <v>1.013762379000582</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.003850399353208</v>
+        <v>1.023512762684099</v>
       </c>
       <c r="D8">
-        <v>1.021364659409274</v>
+        <v>1.02932895135941</v>
       </c>
       <c r="E8">
-        <v>1.009737590726331</v>
+        <v>1.024119353057959</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.04532879217371</v>
+        <v>1.032648897742623</v>
       </c>
       <c r="J8">
-        <v>1.025347496254064</v>
+        <v>1.028572272234907</v>
       </c>
       <c r="K8">
-        <v>1.03226280512892</v>
+        <v>1.032079241646674</v>
       </c>
       <c r="L8">
-        <v>1.020787256112018</v>
+        <v>1.026884488100127</v>
       </c>
       <c r="N8">
-        <v>1.012505534062203</v>
+        <v>1.013604362721834</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9955833456389507</v>
+        <v>1.021834029181753</v>
       </c>
       <c r="D9">
-        <v>1.015389113047537</v>
+        <v>1.028079627688584</v>
       </c>
       <c r="E9">
-        <v>1.003355841386864</v>
+        <v>1.022711026300132</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.042942147463095</v>
+        <v>1.032308254991301</v>
       </c>
       <c r="J9">
-        <v>1.021293037204368</v>
+        <v>1.027723478821064</v>
       </c>
       <c r="K9">
-        <v>1.028237351041549</v>
+        <v>1.031268261077129</v>
       </c>
       <c r="L9">
-        <v>1.016394706036925</v>
+        <v>1.025917572666616</v>
       </c>
       <c r="N9">
-        <v>1.011172782438136</v>
+        <v>1.013325280577399</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9898362776767093</v>
+        <v>1.020717303703897</v>
       </c>
       <c r="D10">
-        <v>1.011246146258375</v>
+        <v>1.027248037023614</v>
       </c>
       <c r="E10">
-        <v>0.9989523043292644</v>
+        <v>1.021776353228408</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.041229224495262</v>
+        <v>1.032074879435337</v>
       </c>
       <c r="J10">
-        <v>1.018459031519497</v>
+        <v>1.027156431780957</v>
       </c>
       <c r="K10">
-        <v>1.025415274091064</v>
+        <v>1.030725199557231</v>
       </c>
       <c r="L10">
-        <v>1.013340501045904</v>
+        <v>1.025273553033571</v>
       </c>
       <c r="N10">
-        <v>1.010241392995741</v>
+        <v>1.013138825106761</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9872875689552415</v>
+        <v>1.020234351244219</v>
       </c>
       <c r="D11">
-        <v>1.009412057264567</v>
+        <v>1.026888281103367</v>
       </c>
       <c r="E11">
-        <v>0.9970077103672812</v>
+        <v>1.021372654354499</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040457363679634</v>
+        <v>1.031972347380985</v>
       </c>
       <c r="J11">
-        <v>1.017198932373266</v>
+        <v>1.026910630592255</v>
       </c>
       <c r="K11">
-        <v>1.024158632287235</v>
+        <v>1.030489495284539</v>
       </c>
       <c r="L11">
-        <v>1.011986278373677</v>
+        <v>1.024994844645536</v>
       </c>
       <c r="N11">
-        <v>1.009827314471217</v>
+        <v>1.013057998657793</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9863314369380565</v>
+        <v>1.020055052967709</v>
       </c>
       <c r="D12">
-        <v>1.008724548817078</v>
+        <v>1.026754703147339</v>
       </c>
       <c r="E12">
-        <v>0.9962794956885944</v>
+        <v>1.021222858093924</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040166016417521</v>
+        <v>1.031934041157772</v>
       </c>
       <c r="J12">
-        <v>1.016725755615142</v>
+        <v>1.026819290521181</v>
       </c>
       <c r="K12">
-        <v>1.023686487552116</v>
+        <v>1.030401862322283</v>
       </c>
       <c r="L12">
-        <v>1.011478323503607</v>
+        <v>1.024891344985301</v>
       </c>
       <c r="N12">
-        <v>1.009671832940662</v>
+        <v>1.013027963068904</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9865369635608658</v>
+        <v>1.020093508870612</v>
       </c>
       <c r="D13">
-        <v>1.008872307904522</v>
+        <v>1.026783353712513</v>
       </c>
       <c r="E13">
-        <v>0.996435971150292</v>
+        <v>1.021254982830697</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.040228723426945</v>
+        <v>1.03194226796985</v>
       </c>
       <c r="J13">
-        <v>1.016827488125523</v>
+        <v>1.026838884999045</v>
       </c>
       <c r="K13">
-        <v>1.023788010028443</v>
+        <v>1.030420663572466</v>
       </c>
       <c r="L13">
-        <v>1.011587507734944</v>
+        <v>1.024913544855552</v>
       </c>
       <c r="N13">
-        <v>1.009705260933613</v>
+        <v>1.013034406387475</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9872087294162002</v>
+        <v>1.020219528508685</v>
       </c>
       <c r="D14">
-        <v>1.009355356290855</v>
+        <v>1.026877238447059</v>
       </c>
       <c r="E14">
-        <v>0.9969476377154678</v>
+        <v>1.021360268964961</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040433376234094</v>
+        <v>1.031969185484715</v>
       </c>
       <c r="J14">
-        <v>1.017159924884111</v>
+        <v>1.026903081172064</v>
       </c>
       <c r="K14">
-        <v>1.024119715223567</v>
+        <v>1.030482253178689</v>
       </c>
       <c r="L14">
-        <v>1.011944392372</v>
+        <v>1.024986288811468</v>
       </c>
       <c r="N14">
-        <v>1.009814496801478</v>
+        <v>1.01305551617006</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9876213653394783</v>
+        <v>1.02029718558929</v>
       </c>
       <c r="D15">
-        <v>1.009652144117228</v>
+        <v>1.026935090805247</v>
       </c>
       <c r="E15">
-        <v>0.9972621029603341</v>
+        <v>1.021425159892586</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040558850736329</v>
+        <v>1.03198574096379</v>
       </c>
       <c r="J15">
-        <v>1.017364066522495</v>
+        <v>1.026942629484844</v>
       </c>
       <c r="K15">
-        <v>1.024323372840444</v>
+        <v>1.030520189759652</v>
       </c>
       <c r="L15">
-        <v>1.012163621469909</v>
+        <v>1.025031112128581</v>
       </c>
       <c r="N15">
-        <v>1.009881577076248</v>
+        <v>1.013068520889146</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9900041265330035</v>
+        <v>1.020749368423943</v>
       </c>
       <c r="D16">
-        <v>1.011367004707843</v>
+        <v>1.027271919934673</v>
       </c>
       <c r="E16">
-        <v>0.9990805448361105</v>
+        <v>1.021803167080106</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.041279805499765</v>
+        <v>1.032081653071226</v>
       </c>
       <c r="J16">
-        <v>1.01854195162026</v>
+        <v>1.027172739310788</v>
       </c>
       <c r="K16">
-        <v>1.025497929126002</v>
+        <v>1.03074083090648</v>
       </c>
       <c r="L16">
-        <v>1.013429693572937</v>
+        <v>1.025292053418412</v>
       </c>
       <c r="N16">
-        <v>1.01026864228764</v>
+        <v>1.013144187436324</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9914823895622414</v>
+        <v>1.021033172077654</v>
       </c>
       <c r="D17">
-        <v>1.012431793285156</v>
+        <v>1.027483293323798</v>
       </c>
       <c r="E17">
-        <v>1.000210923158933</v>
+        <v>1.02204055578164</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.041723890121793</v>
+        <v>1.032141420919337</v>
       </c>
       <c r="J17">
-        <v>1.019271868358322</v>
+        <v>1.027317010884825</v>
       </c>
       <c r="K17">
-        <v>1.026225303565158</v>
+        <v>1.03087908571841</v>
       </c>
       <c r="L17">
-        <v>1.014215255138703</v>
+        <v>1.025455777955861</v>
       </c>
       <c r="N17">
-        <v>1.010508514087111</v>
+        <v>1.01319162730215</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9923388549706618</v>
+        <v>1.021198767414307</v>
       </c>
       <c r="D18">
-        <v>1.013049006822134</v>
+        <v>1.027606615384795</v>
       </c>
       <c r="E18">
-        <v>1.000866618898509</v>
+        <v>1.022179118939021</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.041980015747156</v>
+        <v>1.03217613973905</v>
       </c>
       <c r="J18">
-        <v>1.019694448516898</v>
+        <v>1.027401136286001</v>
       </c>
       <c r="K18">
-        <v>1.026646235747953</v>
+        <v>1.030959673757083</v>
       </c>
       <c r="L18">
-        <v>1.014670410119854</v>
+        <v>1.025551290691413</v>
       </c>
       <c r="N18">
-        <v>1.010647390905226</v>
+        <v>1.013219289457844</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9926299184404959</v>
+        <v>1.021255240829085</v>
       </c>
       <c r="D19">
-        <v>1.013258812318186</v>
+        <v>1.02764867030678</v>
       </c>
       <c r="E19">
-        <v>1.001089584228174</v>
+        <v>1.022226382011099</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.042066859180318</v>
+        <v>1.032187953717195</v>
       </c>
       <c r="J19">
-        <v>1.019838005067145</v>
+        <v>1.027429816460317</v>
       </c>
       <c r="K19">
-        <v>1.026789202248525</v>
+        <v>1.030987143049661</v>
       </c>
       <c r="L19">
-        <v>1.014825093894516</v>
+        <v>1.025583860560014</v>
       </c>
       <c r="N19">
-        <v>1.010694570140838</v>
+        <v>1.01322872004534</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9913243865417526</v>
+        <v>1.021002716672475</v>
       </c>
       <c r="D20">
-        <v>1.012317952272312</v>
+        <v>1.027460611682273</v>
       </c>
       <c r="E20">
-        <v>1.000090021796736</v>
+        <v>1.022015076033092</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.041676544953258</v>
+        <v>1.032135023153938</v>
       </c>
       <c r="J20">
-        <v>1.019193884063662</v>
+        <v>1.027301534565341</v>
       </c>
       <c r="K20">
-        <v>1.026147609080837</v>
+        <v>1.030864257824462</v>
       </c>
       <c r="L20">
-        <v>1.01413128846448</v>
+        <v>1.025438210301516</v>
       </c>
       <c r="N20">
-        <v>1.010482885692846</v>
+        <v>1.013186538351567</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9870111745765719</v>
+        <v>1.020182416316287</v>
       </c>
       <c r="D21">
-        <v>1.00921328477014</v>
+        <v>1.02684959029686</v>
       </c>
       <c r="E21">
-        <v>0.9967971295350025</v>
+        <v>1.021329260513703</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040373240217461</v>
+        <v>1.031961265047652</v>
       </c>
       <c r="J21">
-        <v>1.017062173276006</v>
+        <v>1.026884178052441</v>
       </c>
       <c r="K21">
-        <v>1.024022185967579</v>
+        <v>1.030464118823654</v>
       </c>
       <c r="L21">
-        <v>1.011839436408139</v>
+        <v>1.024964866825744</v>
       </c>
       <c r="N21">
-        <v>1.009782376234354</v>
+        <v>1.013049300221591</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9842445326084102</v>
+        <v>1.019667192904561</v>
       </c>
       <c r="D22">
-        <v>1.00722500538894</v>
+        <v>1.026465715374399</v>
       </c>
       <c r="E22">
-        <v>0.9946924696508407</v>
+        <v>1.020898961657924</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039526872491662</v>
+        <v>1.031850736790243</v>
       </c>
       <c r="J22">
-        <v>1.015692170231234</v>
+        <v>1.026621547016602</v>
       </c>
       <c r="K22">
-        <v>1.022654679535152</v>
+        <v>1.030212062434998</v>
       </c>
       <c r="L22">
-        <v>1.010369808130379</v>
+        <v>1.024667402661271</v>
       </c>
       <c r="N22">
-        <v>1.009332221758834</v>
+        <v>1.012962937910681</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.98571650611383</v>
+        <v>1.019940271466621</v>
       </c>
       <c r="D23">
-        <v>1.008282540146628</v>
+        <v>1.026669185748111</v>
       </c>
       <c r="E23">
-        <v>0.9958115168044593</v>
+        <v>1.021126985151321</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.039978140070652</v>
+        <v>1.031909450893921</v>
       </c>
       <c r="J23">
-        <v>1.016421309771113</v>
+        <v>1.026760793311821</v>
       </c>
       <c r="K23">
-        <v>1.023382632109394</v>
+        <v>1.030345726645402</v>
       </c>
       <c r="L23">
-        <v>1.011151660311997</v>
+        <v>1.024825079718262</v>
       </c>
       <c r="N23">
-        <v>1.009571797183696</v>
+        <v>1.013008727180594</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9913957991412641</v>
+        <v>1.021016477981847</v>
       </c>
       <c r="D24">
-        <v>1.01236940403833</v>
+        <v>1.027470860442587</v>
       </c>
       <c r="E24">
-        <v>1.000144663135395</v>
+        <v>1.02202658893112</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.041697947155121</v>
+        <v>1.032137914469942</v>
       </c>
       <c r="J24">
-        <v>1.019229131587545</v>
+        <v>1.027308527727748</v>
       </c>
       <c r="K24">
-        <v>1.026182726162427</v>
+        <v>1.030870958077457</v>
       </c>
       <c r="L24">
-        <v>1.014169238803157</v>
+        <v>1.025446148322237</v>
       </c>
       <c r="N24">
-        <v>1.010494469259809</v>
+        <v>1.013188837856276</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9977607467211752</v>
+        <v>1.022267602550434</v>
       </c>
       <c r="D25">
-        <v>1.016961244297226</v>
+        <v>1.028402388950305</v>
       </c>
       <c r="E25">
-        <v>1.005031148756688</v>
+        <v>1.023074379180041</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.043580222706995</v>
+        <v>1.032397430346409</v>
       </c>
       <c r="J25">
-        <v>1.022363706387157</v>
+        <v>1.027943127115876</v>
       </c>
       <c r="K25">
-        <v>1.029301843381992</v>
+        <v>1.031478349763246</v>
       </c>
       <c r="L25">
-        <v>1.017551861467894</v>
+        <v>1.026167445974109</v>
       </c>
       <c r="N25">
-        <v>1.011524695298283</v>
+        <v>1.013397502656659</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_210/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_210/res_bus/vm_pu.xlsx
@@ -418,34 +418,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.023267232260603</v>
+        <v>1.002668573273516</v>
       </c>
       <c r="D2">
-        <v>1.029146288686311</v>
+        <v>1.020509370928032</v>
       </c>
       <c r="E2">
-        <v>1.02391312102178</v>
+        <v>1.008821730855501</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.0325998660753</v>
+        <v>1.044993858006149</v>
       </c>
       <c r="J2">
-        <v>1.028448410760337</v>
+        <v>1.024769759684302</v>
       </c>
       <c r="K2">
-        <v>1.031961047169429</v>
+        <v>1.031690184880811</v>
       </c>
       <c r="L2">
-        <v>1.026743163461279</v>
+        <v>1.020159517985829</v>
       </c>
       <c r="N2">
-        <v>1.013563638581738</v>
+        <v>1.012315606456076</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -453,34 +453,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.023994022218411</v>
+        <v>1.006140168862854</v>
       </c>
       <c r="D3">
-        <v>1.029686919012857</v>
+        <v>1.023022670640273</v>
       </c>
       <c r="E3">
-        <v>1.024523839692532</v>
+        <v>1.011515543855197</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.032744194110722</v>
+        <v>1.045971197555145</v>
       </c>
       <c r="J3">
-        <v>1.028814760757309</v>
+        <v>1.02646483482591</v>
       </c>
       <c r="K3">
-        <v>1.032310482425216</v>
+        <v>1.033369208718337</v>
       </c>
       <c r="L3">
-        <v>1.027161396635822</v>
+        <v>1.022003171296847</v>
       </c>
       <c r="N3">
-        <v>1.01368408856369</v>
+        <v>1.012872869495118</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -488,34 +488,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.024464740642486</v>
+        <v>1.008345840791577</v>
       </c>
       <c r="D4">
-        <v>1.030036958671803</v>
+        <v>1.024620847518887</v>
       </c>
       <c r="E4">
-        <v>1.024919797738655</v>
+        <v>1.01323264123032</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.032836348136384</v>
+        <v>1.046581428316315</v>
       </c>
       <c r="J4">
-        <v>1.02905155962242</v>
+        <v>1.027538441926012</v>
       </c>
       <c r="K4">
-        <v>1.032536097416402</v>
+        <v>1.034430931403195</v>
       </c>
       <c r="L4">
-        <v>1.027432109903117</v>
+        <v>1.02317394079511</v>
       </c>
       <c r="N4">
-        <v>1.013761941864797</v>
+        <v>1.013225848161862</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -523,34 +523,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0246627331913</v>
+        <v>1.009263626764833</v>
       </c>
       <c r="D5">
-        <v>1.030184164952103</v>
+        <v>1.025286140596894</v>
       </c>
       <c r="E5">
-        <v>1.025086443715861</v>
+        <v>1.013948442205532</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.032874792885387</v>
+        <v>1.046832736560982</v>
       </c>
       <c r="J5">
-        <v>1.029151047654226</v>
+        <v>1.027984341515312</v>
       </c>
       <c r="K5">
-        <v>1.032630826472655</v>
+        <v>1.034871472998578</v>
       </c>
       <c r="L5">
-        <v>1.0275459374186</v>
+        <v>1.02366093319841</v>
       </c>
       <c r="N5">
-        <v>1.013794650364313</v>
+        <v>1.013372455984964</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -558,34 +558,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.024695982964449</v>
+        <v>1.009417178638965</v>
       </c>
       <c r="D6">
-        <v>1.030208884384227</v>
+        <v>1.025397464483873</v>
       </c>
       <c r="E6">
-        <v>1.025114435109993</v>
+        <v>1.014068276919755</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.032881230496011</v>
+        <v>1.046874627604426</v>
       </c>
       <c r="J6">
-        <v>1.029167748444152</v>
+        <v>1.028058893960753</v>
       </c>
       <c r="K6">
-        <v>1.032646724848662</v>
+        <v>1.034945104508654</v>
       </c>
       <c r="L6">
-        <v>1.027565050667965</v>
+        <v>1.023742399748844</v>
       </c>
       <c r="N6">
-        <v>1.013800141018636</v>
+        <v>1.013396968490192</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -593,34 +593,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.024467385828317</v>
+        <v>1.008358141197647</v>
       </c>
       <c r="D7">
-        <v>1.030038925456962</v>
+        <v>1.024629762864317</v>
       </c>
       <c r="E7">
-        <v>1.024922023745183</v>
+        <v>1.013242229436957</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.032836863004408</v>
+        <v>1.046584806772141</v>
       </c>
       <c r="J7">
-        <v>1.029052889232559</v>
+        <v>1.027544421304177</v>
       </c>
       <c r="K7">
-        <v>1.032537363662031</v>
+        <v>1.034436840613139</v>
       </c>
       <c r="L7">
-        <v>1.027433630796617</v>
+        <v>1.023180468290501</v>
       </c>
       <c r="N7">
-        <v>1.013762379000582</v>
+        <v>1.01322781410623</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -628,34 +628,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023512762684099</v>
+        <v>1.003850399353209</v>
       </c>
       <c r="D8">
-        <v>1.02932895135941</v>
+        <v>1.021364659409274</v>
       </c>
       <c r="E8">
-        <v>1.024119353057959</v>
+        <v>1.009737590726331</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.032648897742623</v>
+        <v>1.04532879217371</v>
       </c>
       <c r="J8">
-        <v>1.028572272234907</v>
+        <v>1.025347496254065</v>
       </c>
       <c r="K8">
-        <v>1.032079241646674</v>
+        <v>1.03226280512892</v>
       </c>
       <c r="L8">
-        <v>1.026884488100127</v>
+        <v>1.020787256112018</v>
       </c>
       <c r="N8">
-        <v>1.013604362721834</v>
+        <v>1.012505534062203</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -663,34 +663,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.021834029181753</v>
+        <v>0.9955833456389506</v>
       </c>
       <c r="D9">
-        <v>1.028079627688584</v>
+        <v>1.015389113047537</v>
       </c>
       <c r="E9">
-        <v>1.022711026300132</v>
+        <v>1.003355841386863</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032308254991301</v>
+        <v>1.042942147463094</v>
       </c>
       <c r="J9">
-        <v>1.027723478821064</v>
+        <v>1.021293037204368</v>
       </c>
       <c r="K9">
-        <v>1.031268261077129</v>
+        <v>1.028237351041549</v>
       </c>
       <c r="L9">
-        <v>1.025917572666616</v>
+        <v>1.016394706036924</v>
       </c>
       <c r="N9">
-        <v>1.013325280577399</v>
+        <v>1.011172782438136</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -698,34 +698,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020717303703897</v>
+        <v>0.9898362776767081</v>
       </c>
       <c r="D10">
-        <v>1.027248037023614</v>
+        <v>1.011246146258374</v>
       </c>
       <c r="E10">
-        <v>1.021776353228408</v>
+        <v>0.9989523043292633</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032074879435337</v>
+        <v>1.041229224495262</v>
       </c>
       <c r="J10">
-        <v>1.027156431780957</v>
+        <v>1.018459031519496</v>
       </c>
       <c r="K10">
-        <v>1.030725199557231</v>
+        <v>1.025415274091063</v>
       </c>
       <c r="L10">
-        <v>1.025273553033571</v>
+        <v>1.013340501045903</v>
       </c>
       <c r="N10">
-        <v>1.013138825106761</v>
+        <v>1.01024139299574</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -733,34 +733,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.020234351244219</v>
+        <v>0.9872875689552422</v>
       </c>
       <c r="D11">
-        <v>1.026888281103367</v>
+        <v>1.009412057264568</v>
       </c>
       <c r="E11">
-        <v>1.021372654354499</v>
+        <v>0.9970077103672816</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031972347380985</v>
+        <v>1.040457363679635</v>
       </c>
       <c r="J11">
-        <v>1.026910630592255</v>
+        <v>1.017198932373267</v>
       </c>
       <c r="K11">
-        <v>1.030489495284539</v>
+        <v>1.024158632287236</v>
       </c>
       <c r="L11">
-        <v>1.024994844645536</v>
+        <v>1.011986278373677</v>
       </c>
       <c r="N11">
-        <v>1.013057998657793</v>
+        <v>1.009827314471217</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -768,34 +768,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.020055052967709</v>
+        <v>0.986331436938056</v>
       </c>
       <c r="D12">
-        <v>1.026754703147339</v>
+        <v>1.008724548817078</v>
       </c>
       <c r="E12">
-        <v>1.021222858093924</v>
+        <v>0.9962794956885942</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031934041157772</v>
+        <v>1.04016601641752</v>
       </c>
       <c r="J12">
-        <v>1.026819290521181</v>
+        <v>1.016725755615142</v>
       </c>
       <c r="K12">
-        <v>1.030401862322283</v>
+        <v>1.023686487552115</v>
       </c>
       <c r="L12">
-        <v>1.024891344985301</v>
+        <v>1.011478323503607</v>
       </c>
       <c r="N12">
-        <v>1.013027963068904</v>
+        <v>1.009671832940662</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -803,34 +803,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.020093508870612</v>
+        <v>0.9865369635608658</v>
       </c>
       <c r="D13">
-        <v>1.026783353712513</v>
+        <v>1.008872307904522</v>
       </c>
       <c r="E13">
-        <v>1.021254982830697</v>
+        <v>0.9964359711502923</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.03194226796985</v>
+        <v>1.040228723426945</v>
       </c>
       <c r="J13">
-        <v>1.026838884999045</v>
+        <v>1.016827488125523</v>
       </c>
       <c r="K13">
-        <v>1.030420663572466</v>
+        <v>1.023788010028443</v>
       </c>
       <c r="L13">
-        <v>1.024913544855552</v>
+        <v>1.011587507734944</v>
       </c>
       <c r="N13">
-        <v>1.013034406387475</v>
+        <v>1.009705260933613</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -838,34 +838,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.020219528508685</v>
+        <v>0.9872087294162003</v>
       </c>
       <c r="D14">
-        <v>1.026877238447059</v>
+        <v>1.009355356290855</v>
       </c>
       <c r="E14">
-        <v>1.021360268964961</v>
+        <v>0.9969476377154678</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031969185484715</v>
+        <v>1.040433376234094</v>
       </c>
       <c r="J14">
-        <v>1.026903081172064</v>
+        <v>1.017159924884111</v>
       </c>
       <c r="K14">
-        <v>1.030482253178689</v>
+        <v>1.024119715223568</v>
       </c>
       <c r="L14">
-        <v>1.024986288811468</v>
+        <v>1.011944392372</v>
       </c>
       <c r="N14">
-        <v>1.01305551617006</v>
+        <v>1.009814496801478</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -873,34 +873,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.02029718558929</v>
+        <v>0.9876213653394788</v>
       </c>
       <c r="D15">
-        <v>1.026935090805247</v>
+        <v>1.009652144117229</v>
       </c>
       <c r="E15">
-        <v>1.021425159892586</v>
+        <v>0.9972621029603348</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.03198574096379</v>
+        <v>1.040558850736329</v>
       </c>
       <c r="J15">
-        <v>1.026942629484844</v>
+        <v>1.017364066522495</v>
       </c>
       <c r="K15">
-        <v>1.030520189759652</v>
+        <v>1.024323372840444</v>
       </c>
       <c r="L15">
-        <v>1.025031112128581</v>
+        <v>1.012163621469909</v>
       </c>
       <c r="N15">
-        <v>1.013068520889146</v>
+        <v>1.009881577076248</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -908,34 +908,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.020749368423943</v>
+        <v>0.9900041265330037</v>
       </c>
       <c r="D16">
-        <v>1.027271919934673</v>
+        <v>1.011367004707844</v>
       </c>
       <c r="E16">
-        <v>1.021803167080106</v>
+        <v>0.9990805448361103</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032081653071226</v>
+        <v>1.041279805499765</v>
       </c>
       <c r="J16">
-        <v>1.027172739310788</v>
+        <v>1.01854195162026</v>
       </c>
       <c r="K16">
-        <v>1.03074083090648</v>
+        <v>1.025497929126002</v>
       </c>
       <c r="L16">
-        <v>1.025292053418412</v>
+        <v>1.013429693572937</v>
       </c>
       <c r="N16">
-        <v>1.013144187436324</v>
+        <v>1.01026864228764</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -943,34 +943,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.021033172077654</v>
+        <v>0.9914823895622414</v>
       </c>
       <c r="D17">
-        <v>1.027483293323798</v>
+        <v>1.012431793285156</v>
       </c>
       <c r="E17">
-        <v>1.02204055578164</v>
+        <v>1.000210923158933</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032141420919337</v>
+        <v>1.041723890121793</v>
       </c>
       <c r="J17">
-        <v>1.027317010884825</v>
+        <v>1.019271868358322</v>
       </c>
       <c r="K17">
-        <v>1.03087908571841</v>
+        <v>1.026225303565158</v>
       </c>
       <c r="L17">
-        <v>1.025455777955861</v>
+        <v>1.014215255138703</v>
       </c>
       <c r="N17">
-        <v>1.01319162730215</v>
+        <v>1.010508514087111</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -978,34 +978,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.021198767414307</v>
+        <v>0.9923388549706618</v>
       </c>
       <c r="D18">
-        <v>1.027606615384795</v>
+        <v>1.013049006822134</v>
       </c>
       <c r="E18">
-        <v>1.022179118939021</v>
+        <v>1.000866618898509</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03217613973905</v>
+        <v>1.041980015747156</v>
       </c>
       <c r="J18">
-        <v>1.027401136286001</v>
+        <v>1.019694448516898</v>
       </c>
       <c r="K18">
-        <v>1.030959673757083</v>
+        <v>1.026646235747953</v>
       </c>
       <c r="L18">
-        <v>1.025551290691413</v>
+        <v>1.014670410119854</v>
       </c>
       <c r="N18">
-        <v>1.013219289457844</v>
+        <v>1.010647390905226</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1013,34 +1013,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.021255240829085</v>
+        <v>0.992629918440496</v>
       </c>
       <c r="D19">
-        <v>1.02764867030678</v>
+        <v>1.013258812318186</v>
       </c>
       <c r="E19">
-        <v>1.022226382011099</v>
+        <v>1.001089584228174</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032187953717195</v>
+        <v>1.042066859180318</v>
       </c>
       <c r="J19">
-        <v>1.027429816460317</v>
+        <v>1.019838005067145</v>
       </c>
       <c r="K19">
-        <v>1.030987143049661</v>
+        <v>1.026789202248525</v>
       </c>
       <c r="L19">
-        <v>1.025583860560014</v>
+        <v>1.014825093894516</v>
       </c>
       <c r="N19">
-        <v>1.01322872004534</v>
+        <v>1.010694570140839</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1048,34 +1048,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.021002716672475</v>
+        <v>0.9913243865417528</v>
       </c>
       <c r="D20">
-        <v>1.027460611682273</v>
+        <v>1.012317952272312</v>
       </c>
       <c r="E20">
-        <v>1.022015076033092</v>
+        <v>1.000090021796736</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.032135023153938</v>
+        <v>1.041676544953259</v>
       </c>
       <c r="J20">
-        <v>1.027301534565341</v>
+        <v>1.019193884063662</v>
       </c>
       <c r="K20">
-        <v>1.030864257824462</v>
+        <v>1.026147609080837</v>
       </c>
       <c r="L20">
-        <v>1.025438210301516</v>
+        <v>1.01413128846448</v>
       </c>
       <c r="N20">
-        <v>1.013186538351567</v>
+        <v>1.010482885692846</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1083,34 +1083,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.020182416316287</v>
+        <v>0.9870111745765712</v>
       </c>
       <c r="D21">
-        <v>1.02684959029686</v>
+        <v>1.009213284770139</v>
       </c>
       <c r="E21">
-        <v>1.021329260513703</v>
+        <v>0.9967971295350019</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031961265047652</v>
+        <v>1.040373240217461</v>
       </c>
       <c r="J21">
-        <v>1.026884178052441</v>
+        <v>1.017062173276005</v>
       </c>
       <c r="K21">
-        <v>1.030464118823654</v>
+        <v>1.024022185967578</v>
       </c>
       <c r="L21">
-        <v>1.024964866825744</v>
+        <v>1.011839436408139</v>
       </c>
       <c r="N21">
-        <v>1.013049300221591</v>
+        <v>1.009782376234354</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1118,34 +1118,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.019667192904561</v>
+        <v>0.9842445326084089</v>
       </c>
       <c r="D22">
-        <v>1.026465715374399</v>
+        <v>1.007225005388939</v>
       </c>
       <c r="E22">
-        <v>1.020898961657924</v>
+        <v>0.9946924696508396</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.031850736790243</v>
+        <v>1.039526872491662</v>
       </c>
       <c r="J22">
-        <v>1.026621547016602</v>
+        <v>1.015692170231233</v>
       </c>
       <c r="K22">
-        <v>1.030212062434998</v>
+        <v>1.022654679535151</v>
       </c>
       <c r="L22">
-        <v>1.024667402661271</v>
+        <v>1.010369808130378</v>
       </c>
       <c r="N22">
-        <v>1.012962937910681</v>
+        <v>1.009332221758833</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1153,34 +1153,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.019940271466621</v>
+        <v>0.9857165061138298</v>
       </c>
       <c r="D23">
-        <v>1.026669185748111</v>
+        <v>1.008282540146628</v>
       </c>
       <c r="E23">
-        <v>1.021126985151321</v>
+        <v>0.9958115168044589</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031909450893921</v>
+        <v>1.039978140070651</v>
       </c>
       <c r="J23">
-        <v>1.026760793311821</v>
+        <v>1.016421309771113</v>
       </c>
       <c r="K23">
-        <v>1.030345726645402</v>
+        <v>1.023382632109394</v>
       </c>
       <c r="L23">
-        <v>1.024825079718262</v>
+        <v>1.011151660311996</v>
       </c>
       <c r="N23">
-        <v>1.013008727180594</v>
+        <v>1.009571797183696</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1188,34 +1188,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.021016477981847</v>
+        <v>0.9913957991412641</v>
       </c>
       <c r="D24">
-        <v>1.027470860442587</v>
+        <v>1.01236940403833</v>
       </c>
       <c r="E24">
-        <v>1.02202658893112</v>
+        <v>1.000144663135395</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032137914469942</v>
+        <v>1.041697947155121</v>
       </c>
       <c r="J24">
-        <v>1.027308527727748</v>
+        <v>1.019229131587545</v>
       </c>
       <c r="K24">
-        <v>1.030870958077457</v>
+        <v>1.026182726162427</v>
       </c>
       <c r="L24">
-        <v>1.025446148322237</v>
+        <v>1.014169238803157</v>
       </c>
       <c r="N24">
-        <v>1.013188837856276</v>
+        <v>1.010494469259809</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1223,34 +1223,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.022267602550434</v>
+        <v>0.9977607467211748</v>
       </c>
       <c r="D25">
-        <v>1.028402388950305</v>
+        <v>1.016961244297226</v>
       </c>
       <c r="E25">
-        <v>1.023074379180041</v>
+        <v>1.005031148756687</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032397430346409</v>
+        <v>1.043580222706995</v>
       </c>
       <c r="J25">
-        <v>1.027943127115876</v>
+        <v>1.022363706387157</v>
       </c>
       <c r="K25">
-        <v>1.031478349763246</v>
+        <v>1.029301843381991</v>
       </c>
       <c r="L25">
-        <v>1.026167445974109</v>
+        <v>1.017551861467894</v>
       </c>
       <c r="N25">
-        <v>1.013397502656659</v>
+        <v>1.011524695298283</v>
       </c>
     </row>
   </sheetData>
